--- a/pred_ohlcv/54_21/2019-10-14 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1191.7388</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1191.7388</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1166.274</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1017.387</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1017.387</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1044.887</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1040.767</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>917.3035</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>917.3035</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>917.3035</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>917.3035</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>962.7481</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>939.0538</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1013.0463</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1044.0463</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1044.0463</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>978.5463</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>978.5463</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1095.0463</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1095.0463</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1134.0463</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1134.0463</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1134.0463</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>863.3520999999998</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>924.8520999999998</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>924.8520999999998</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>926.8520999999998</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>742.5875999999998</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>797.5875999999998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>803.5875999999998</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>803.5875999999998</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>801.2950999999998</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>579.1931999999998</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-87.11270000000013</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>103.3872999999999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>101.6906999999999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>142.0576999999999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-54.33540000000013</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-60.77540000000013</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>39.22459999999987</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-56.77540000000013</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-231.0378000000001</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-201.0378000000001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-160.7021000000001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-166.7491000000001</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-172.7491000000001</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-92.24910000000014</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-28.24910000000014</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-26.24910000000014</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-60.86540000000014</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-35.40940000000014</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8.59059999999986</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-132.04248329</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>264.9457167099999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>211.8624167099999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>244.8624167099999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>344.8624167099999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>372.8624167099999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>537.8109167099999</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1190.05041671</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1267.50315605</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1273.50315605</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1244.92645605</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1275.92645605</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1259.996398759999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1140.067498759999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 BTG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>1191.7388</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1174.8487</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1174.8487</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1158.3668</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1017.387</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1040.767</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>869.2920999999999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>887.2920999999999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>887.2920999999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>895.3520999999998</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>907.5875999999998</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-58.86540000000014</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-60.86540000000014</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-28.36540000000014</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-35.40940000000014</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8.59059999999986</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-209.46318329</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-270.03218329</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-132.04248329</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-73.54248329000004</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>181.45751671</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>70.45751670999996</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>264.9457167099999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>211.8624167099999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>244.8624167099999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>344.8624167099999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>372.8624167099999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>319.8624167099999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>282.9183167099999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>313.8158167099999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>374.3158167099999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>298.8158167099999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>298.8158167099999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>328.3158167099999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>323.8511167099999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>401.3511167099999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>636.3511167099999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>593.3511167099999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>545.3511167099999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1374.37780159</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1422.87780159</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1318.618101589999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1351.138901589999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>1316.618101589999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>1316.618101589999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1559.996398759999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1259.996398759999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1299.496398759999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1183.496398759999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1222.496398759999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1140.067498759999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1420.354398759999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1418.619598759999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1416.619598759999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2094.725098759999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
